--- a/Document/KHOALUANNHOM/10. SM.TestCaseSprint1.xlsx
+++ b/Document/KHOALUANNHOM/10. SM.TestCaseSprint1.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Main" sheetId="2" r:id="rId1"/>
-    <sheet name="Test_register_" sheetId="3" r:id="rId2"/>
-    <sheet name="Test_Login" sheetId="4" r:id="rId3"/>
-    <sheet name="Test_Account" sheetId="5" r:id="rId4"/>
-    <sheet name="Test_Cart" sheetId="6" r:id="rId5"/>
+    <sheet name="Test_Trang chủ" sheetId="2" r:id="rId1"/>
+    <sheet name="Test_Đăng ký_" sheetId="3" r:id="rId2"/>
+    <sheet name="Test_đăng nhập" sheetId="4" r:id="rId3"/>
+    <sheet name="Test_tài khoản" sheetId="5" r:id="rId4"/>
+    <sheet name="Test_giỏ hàng" sheetId="6" r:id="rId5"/>
+    <sheet name="Test_Đặt hàng" sheetId="7" r:id="rId6"/>
+    <sheet name="Test_thông báo gmail" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="259">
   <si>
     <t>Project Name</t>
   </si>
@@ -97,48 +99,12 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị danh mục 'Sản phẩm'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào ' Sản phẩm'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Sản phẩm' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
     <t>Hiển thị ra form sản phẩm</t>
   </si>
   <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị danh mục 'Điện thoại'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Điện thoại' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Điện thoại'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Điện thoại</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Laptop'</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Phụ kiện'</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Tin tức'</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Giới thiệu'</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Liên hệ'</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
@@ -163,94 +129,10 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Trỏ chuột vào 'Laptop' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Laptop'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Laptop</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Phụ kiện</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào ' Phụ kiện'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Tin tức' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Tin tức'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Tin tức</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Giới thiệu' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Phụ kiện' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Giới thiệu'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Giới thiệu</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Liên hệ' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào ' Liên hệ'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Liên hệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Trang chủ'</t>
-  </si>
-  <si>
-    <t>Khi đang ở form khác Trỏ chuột vào 'Trang chủ' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Trang chủ'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Trang chủ</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Đăng ký'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Đăng ký' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Đăng ký'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Đăng ký</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị danh mục 'Đăng nhập'</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Đăng nhập' có hiển thị ra form sản phẩm không</t>
-  </si>
-  <si>
-    <t>Trỏ chuột vào 'Đăng nhập'</t>
-  </si>
-  <si>
-    <t>Hiển thị ra form Đăng nhập</t>
-  </si>
-  <si>
     <t>form đăng ký</t>
   </si>
   <si>
     <t>TC06</t>
-  </si>
-  <si>
-    <t>Textbox 'Tên đăng nhập'</t>
   </si>
   <si>
     <t>Tên đăng nhập bỏ trống</t>
@@ -302,9 +184,6 @@
     <t>TC09</t>
   </si>
   <si>
-    <t>Textbox'Mật khẩu'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mật khẩu để trống </t>
   </si>
   <si>
@@ -351,9 +230,6 @@
     <t>TC13</t>
   </si>
   <si>
-    <t>Textbox'Xác Nhận Mật Khẩu'</t>
-  </si>
-  <si>
     <t>1. Không nhập giá trị vào textbox
 2. Nhấn TAB để chuyển sang 'giới tính'</t>
   </si>
@@ -379,65 +255,16 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>Textbox 'Họ tên'</t>
-  </si>
-  <si>
-    <t>Tên đăng kí bỏ trống</t>
-  </si>
-  <si>
-    <t>1. Không nhập giá trị vào textbox
-2. Nhấn TAB để chuyển sang 'Tên đăng nhâp'</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo lỗi: 'Chưa nhập Họ Tên'</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>Tên đăng kí có kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Nhập sai họ tên đăng kí</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo lỗi: 'Họ Tên đăng kí sai'</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
-    <t>Tên đăng kí đủ kí tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập đủ họ tên đăng kí </t>
-  </si>
-  <si>
-    <t>Chuyển tiếp qua tên đăng nhập</t>
-  </si>
-  <si>
     <t>TC04</t>
   </si>
   <si>
-    <t>Có khoảng cách trống cho tên Đăng kí</t>
-  </si>
-  <si>
-    <t>Nhập dấu  cách khoảng trống</t>
-  </si>
-  <si>
     <t>TC05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên đăng kí không đủ kí tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập thiếu họ tên </t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo lỗi:'Họ Tên chưa đủ kí tự'</t>
   </si>
   <si>
     <t>Textbox'Email'</t>
@@ -469,48 +296,6 @@
   </si>
   <si>
     <t>Hiển thị thông báo lỗi: 'Chưa nhập Email'</t>
-  </si>
-  <si>
-    <t>TC17</t>
-  </si>
-  <si>
-    <t>TC18</t>
-  </si>
-  <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>Textbox 'Số điện thoại'</t>
-  </si>
-  <si>
-    <t>số điện thoại không nhập</t>
-  </si>
-  <si>
-    <t>không nhập kí tự vào số điện thoại</t>
-  </si>
-  <si>
-    <t>hiển thị thông báo lỗi 'chưa nhập số điện thoại'</t>
-  </si>
-  <si>
-    <t>nhập 1 số điện thoại</t>
-  </si>
-  <si>
-    <t>nhập một kí tự bất kì vào số điện thoại</t>
-  </si>
-  <si>
-    <t>hiển thị thông báo lỗi 'nhập sai'</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo lỗi 'nhập tối thiểu 6 chữ cái'</t>
-  </si>
-  <si>
-    <t>TC22</t>
   </si>
   <si>
     <t>Form Đăng nhập</t>
@@ -747,13 +532,298 @@
   </si>
   <si>
     <t>Hà</t>
+  </si>
+  <si>
+    <t>Website Bán Hàng Tích Hợp Mô Hình Affiliate Marketing</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Re-test</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Case Procedure</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Re-Test</t>
+  </si>
+  <si>
+    <t>[Register] hyperlink</t>
+  </si>
+  <si>
+    <t>Check Header</t>
+  </si>
+  <si>
+    <t>[Login] hyperlink</t>
+  </si>
+  <si>
+    <t>[Language] Text</t>
+  </si>
+  <si>
+    <t>[Currency] Text</t>
+  </si>
+  <si>
+    <t>[Search] Button</t>
+  </si>
+  <si>
+    <t>[Cart] Button</t>
+  </si>
+  <si>
+    <t>Logo [UNIFY] hyperlink</t>
+  </si>
+  <si>
+    <t>[PAGES] list</t>
+  </si>
+  <si>
+    <t>[PROMOTION] List</t>
+  </si>
+  <si>
+    <t>[GIFTS] List</t>
+  </si>
+  <si>
+    <t>[CLOTHER] List</t>
+  </si>
+  <si>
+    <t>TC-Header-01</t>
+  </si>
+  <si>
+    <t>TC-Header-02</t>
+  </si>
+  <si>
+    <t>TC-Header-03</t>
+  </si>
+  <si>
+    <t>TC-Header-04</t>
+  </si>
+  <si>
+    <t>TC-Header-05</t>
+  </si>
+  <si>
+    <t>TC-Header-06</t>
+  </si>
+  <si>
+    <t>TC-Header-07</t>
+  </si>
+  <si>
+    <t>TC-Header-08</t>
+  </si>
+  <si>
+    <t>TC-Header-09</t>
+  </si>
+  <si>
+    <t>TC-Header-10</t>
+  </si>
+  <si>
+    <t>TC-Header-11</t>
+  </si>
+  <si>
+    <t>Nếu người dùng đã đăng nhập</t>
+  </si>
+  <si>
+    <t>Status = disable</t>
+  </si>
+  <si>
+    <t>trường hợp khác</t>
+  </si>
+  <si>
+    <t>Status = enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Click vào [Register]</t>
+  </si>
+  <si>
+    <t>Xuất hiện trang đăng ký</t>
+  </si>
+  <si>
+    <t>Click vào [Login]</t>
+  </si>
+  <si>
+    <t>Click vào [Language]</t>
+  </si>
+  <si>
+    <t>Click vào [Currency]</t>
+  </si>
+  <si>
+    <t>Chuyển đổi ngôn ngữ  (ENG/VN)</t>
+  </si>
+  <si>
+    <t>Chuyển đổi tiền tệ (USD/VND)</t>
+  </si>
+  <si>
+    <t>Click vào [Search] button</t>
+  </si>
+  <si>
+    <t>Xuất hiện textbox [search]</t>
+  </si>
+  <si>
+    <t>Click [Cart] button</t>
+  </si>
+  <si>
+    <t>Xuất hiện trang giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click [UNIFY] </t>
+  </si>
+  <si>
+    <t>Trở về trang chủ</t>
+  </si>
+  <si>
+    <t>Xuất hiện danh sách trỏ xuông</t>
+  </si>
+  <si>
+    <t>Cố định danh sách trỏ xuống</t>
+  </si>
+  <si>
+    <t>TC-Header-12</t>
+  </si>
+  <si>
+    <t>TC-Header-13</t>
+  </si>
+  <si>
+    <t>TC-Header-14</t>
+  </si>
+  <si>
+    <t>TC-Header-15</t>
+  </si>
+  <si>
+    <t>TC-Header-16</t>
+  </si>
+  <si>
+    <t>TC-Header-17</t>
+  </si>
+  <si>
+    <t>TC-Header-18</t>
+  </si>
+  <si>
+    <t>TC-Header-19</t>
+  </si>
+  <si>
+    <t>Check Slider</t>
+  </si>
+  <si>
+    <t>TC-Slider-20</t>
+  </si>
+  <si>
+    <t>Picture của Slide</t>
+  </si>
+  <si>
+    <t>click vào Picture</t>
+  </si>
+  <si>
+    <t>Xuất hiện trang nội dung của picture</t>
+  </si>
+  <si>
+    <t>TC-Content-21</t>
+  </si>
+  <si>
+    <t>Check Content</t>
+  </si>
+  <si>
+    <t>[Featured Product] hyperlink</t>
+  </si>
+  <si>
+    <t>[Latest Product] hyperlink</t>
+  </si>
+  <si>
+    <t>Click vào [Featured Product]</t>
+  </si>
+  <si>
+    <t>đưa vào [PAGES]</t>
+  </si>
+  <si>
+    <t>Click vào [PAGES]</t>
+  </si>
+  <si>
+    <t>đưa vào [PROMOTION]</t>
+  </si>
+  <si>
+    <t>Click vào [PROMOTION]</t>
+  </si>
+  <si>
+    <t>đưa vào [GIFTS]</t>
+  </si>
+  <si>
+    <t>Click vào [Latest Product]</t>
+  </si>
+  <si>
+    <t>Click vào [GIFTS]</t>
+  </si>
+  <si>
+    <t>đưa vào [CLOTHER]</t>
+  </si>
+  <si>
+    <t>Click vào [CLOTHER]</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm nổi bật</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm mới nhất</t>
+  </si>
+  <si>
+    <t>TC-Content-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Hình ảnh sản phẩm" picture </t>
+  </si>
+  <si>
+    <t>Click vào "hình ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thì chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Dương Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Textbox 'User name'</t>
+  </si>
+  <si>
+    <t>Textbox'Password'</t>
+  </si>
+  <si>
+    <t>Textbox'Confirm Password'</t>
+  </si>
+  <si>
+    <t>check box</t>
+  </si>
+  <si>
+    <t>click vào check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click vào các  check box xem </t>
+  </si>
+  <si>
+    <t>Hiển thị các dấu 'x' ở checkbox</t>
+  </si>
+  <si>
+    <t>không xuất hiện dấu 'x'</t>
+  </si>
+  <si>
+    <t>Trung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,8 +906,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,8 +938,14 @@
         <bgColor indexed="38"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -960,12 +1048,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1021,9 +1176,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,10 +1250,98 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1117,20 +1360,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85613</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>491833</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1138518</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1143,8 +1386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85613" y="1129554"/>
-          <a:ext cx="8357914" cy="4123765"/>
+          <a:off x="1649507" y="1353672"/>
+          <a:ext cx="5190564" cy="4419600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,23 +1403,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885007</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>620805</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134424</xdr:rowOff>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
@@ -1186,8 +1427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="1196340"/>
-          <a:ext cx="8923019" cy="5719884"/>
+          <a:off x="1842950" y="1556658"/>
+          <a:ext cx="7039791" cy="4626428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1602,31 +1843,29 @@
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" customHeight="1">
+    <row r="1" spans="1:7" ht="15.6" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -1636,504 +1875,1206 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <f>COUNTIF(G12:G21,"Failed")</f>
+      <c r="C6" s="2">
+        <f>COUNTIF(F13:F22,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <f>COUNTIF(G12:G21,"Untested")</f>
+      <c r="D6" s="2">
+        <f>COUNTIF(F13:F22,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <f>COUNTIF(G12:G21,"Blocked")</f>
+      <c r="E6" s="3">
+        <f>COUNTIF(F13:F22,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <f>COUNTIF(L12:L21,"Failed")</f>
+      <c r="C7" s="2">
+        <f>COUNTIF(K13:K22,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <f>COUNTIF(L12:L21,"Untested")</f>
+      <c r="D7" s="2">
+        <f>COUNTIF(K13:K22,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <f>COUNTIF(L12:L21,"Blocked")</f>
+      <c r="E7" s="3">
+        <f>COUNTIF(K13:K22,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="9" customFormat="1">
-      <c r="A33" s="51" t="s">
+    <row r="8" spans="1:7">
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" spans="1:14">
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:14" s="9" customFormat="1">
+      <c r="A34" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="53" t="s">
+      <c r="B34" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="58"/>
+      <c r="F34" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="9" customFormat="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" s="9" customFormat="1" ht="28.8">
-      <c r="A35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K35" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="9" customFormat="1" ht="28.8">
-      <c r="A36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K36" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="9" customFormat="1" ht="28.8">
-      <c r="A37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>33</v>
+      <c r="J34" s="54"/>
+      <c r="K34" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="9" customFormat="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" s="52"/>
+    </row>
+    <row r="36" spans="1:14" s="9" customFormat="1">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+    </row>
+    <row r="37" spans="1:14" s="9" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A37" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>173</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K37" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.8">
-      <c r="A38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="61">
+        <v>1</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" s="9" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A38" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="69"/>
       <c r="C38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K38" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.8">
-      <c r="A39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="61">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" s="9" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A39" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="61">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" s="9" customFormat="1">
+      <c r="A40" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="61">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" s="9" customFormat="1">
+      <c r="A41" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="61">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" s="9" customFormat="1">
+      <c r="A42" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="70"/>
+      <c r="C42" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="61">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" s="9" customFormat="1">
+      <c r="A43" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="61">
+        <v>2</v>
+      </c>
+      <c r="G43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K39" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="28.8">
-      <c r="A40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K40" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.8">
-      <c r="A41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K41" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="43.2">
-      <c r="A42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K42" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8">
-      <c r="A43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K43" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.8">
-      <c r="A44" s="10" t="s">
-        <v>45</v>
+      <c r="H43" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="65" t="s">
+        <v>192</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K44" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>162</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="61">
+        <v>2</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="10"/>
+      <c r="N44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="61">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="61">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="61">
+        <v>2</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="61">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="70"/>
+      <c r="C49" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="61">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="61">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="70"/>
+      <c r="C51" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51" s="61">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="63"/>
+      <c r="F52" s="61">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="70"/>
+      <c r="C53" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="61">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="61">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="67">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="65"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="71"/>
+      <c r="B56" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="78"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="66"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="71"/>
+      <c r="B58" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="81"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="63"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="63"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="64">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2167,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2207,10 +3148,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="C5" s="31">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="30">
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <f>COUNTIF(G12:G21,"Untested")</f>
@@ -2221,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2229,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2243,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="9" customFormat="1">
@@ -2307,23 +3248,23 @@
         <v>23</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="22" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>22</v>
@@ -2335,29 +3276,29 @@
         <v>44287</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>22</v>
@@ -2369,26 +3310,26 @@
         <v>44287</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>22</v>
@@ -2403,31 +3344,31 @@
         <v>44287</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="43.2">
       <c r="A45" s="20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="22" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>22</v>
@@ -2439,29 +3380,29 @@
         <v>44287</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>22</v>
@@ -2473,29 +3414,29 @@
         <v>44287</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>22</v>
@@ -2507,26 +3448,26 @@
         <v>44287</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>22</v>
@@ -2541,31 +3482,31 @@
         <v>44287</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.8">
       <c r="A49" s="20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="22" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>22</v>
@@ -2577,29 +3518,29 @@
         <v>44287</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="20" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>22</v>
@@ -2611,29 +3552,29 @@
         <v>44287</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>22</v>
@@ -2645,26 +3586,26 @@
         <v>44287</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="20" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>22</v>
@@ -2679,31 +3620,31 @@
         <v>44287</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="24" customFormat="1" ht="28.8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="24" customFormat="1">
       <c r="A53" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>117</v>
+      <c r="B53" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="E53" s="27"/>
       <c r="F53" s="22" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>22</v>
@@ -2715,29 +3656,29 @@
         <v>44287</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="24" customFormat="1">
       <c r="A54" s="20" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="20" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>22</v>
@@ -2749,29 +3690,29 @@
         <v>44287</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="24" customFormat="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="24" customFormat="1" ht="43.2">
       <c r="A55" s="20" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>128</v>
+        <v>86</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="20" t="s">
-        <v>129</v>
+      <c r="F55" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="I55" s="20" t="s">
         <v>22</v>
@@ -2783,29 +3724,29 @@
         <v>44287</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="24" customFormat="1">
       <c r="A56" s="20" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>22</v>
@@ -2817,29 +3758,31 @@
         <v>44287</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="24" customFormat="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>253</v>
+      </c>
       <c r="C57" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>80</v>
+        <v>254</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I57" s="20" t="s">
         <v>22</v>
@@ -2851,216 +3794,134 @@
         <v>44287</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="24" customFormat="1">
-      <c r="A58" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>139</v>
-      </c>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="28"/>
-      <c r="F58" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K58" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="24" customFormat="1">
-      <c r="A59" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K59" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L59" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="24" customFormat="1" ht="43.2">
-      <c r="A60" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K60" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="24" customFormat="1">
-      <c r="A61" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="28"/>
-      <c r="F61" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K61" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L61" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K62" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="12">
-        <v>44286</v>
-      </c>
-      <c r="K63" s="12">
-        <v>44287</v>
-      </c>
-      <c r="L63" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3121,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3163,7 +4024,7 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -3259,26 +4120,26 @@
     </row>
     <row r="32" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A32" s="22" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E32" s="22"/>
-      <c r="F32" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>80</v>
+      <c r="F32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>22</v>
@@ -3290,29 +4151,29 @@
         <v>44287</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A33" s="22" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>80</v>
+      <c r="F33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>22</v>
@@ -3324,26 +4185,26 @@
         <v>44287</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A34" s="22" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E34" s="22"/>
-      <c r="F34" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>168</v>
+      <c r="F34" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>22</v>
@@ -3358,26 +4219,26 @@
         <v>44287</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="24" customFormat="1">
       <c r="A35" s="22" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>178</v>
+      <c r="F35" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>22</v>
@@ -3392,31 +4253,31 @@
         <v>44287</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A36" s="22" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E36" s="22"/>
-      <c r="F36" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>80</v>
+      <c r="F36" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>22</v>
@@ -3428,26 +4289,26 @@
         <v>44287</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="24" customFormat="1">
       <c r="A37" s="22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="E37" s="22"/>
-      <c r="F37" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>183</v>
+      <c r="F37" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>22</v>
@@ -3462,26 +4323,26 @@
         <v>44287</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A38" s="22" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="F38" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>178</v>
+      <c r="F38" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>22</v>
@@ -3496,28 +4357,28 @@
         <v>44287</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A39" s="22" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>22</v>
@@ -3532,29 +4393,29 @@
         <v>44287</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="24" customFormat="1" ht="43.2">
-      <c r="A40" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>80</v>
+      <c r="A40" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>22</v>
@@ -3565,27 +4426,27 @@
       <c r="K40" s="12">
         <v>44287</v>
       </c>
-      <c r="L40" s="45" t="s">
-        <v>162</v>
+      <c r="L40" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="24" customFormat="1" ht="28.8">
       <c r="A41" s="22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>22</v>
@@ -3600,18 +4461,18 @@
         <v>44287</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="37" customFormat="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="L42" s="38"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="36" customFormat="1">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="L42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3670,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3806,25 +4667,25 @@
       </c>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" s="46" customFormat="1" ht="28.8">
-      <c r="A30" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>199</v>
+    <row r="30" spans="1:12" s="45" customFormat="1" ht="28.8">
+      <c r="A30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>22</v>
@@ -3836,42 +4697,42 @@
       <c r="K30" s="12">
         <v>44287</v>
       </c>
-      <c r="L30" s="47" t="s">
-        <v>163</v>
+      <c r="L30" s="46" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="43.2">
-      <c r="A31" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>203</v>
+      <c r="A31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="28"/>
       <c r="J31" s="12">
         <v>44286</v>
       </c>
       <c r="K31" s="12">
         <v>44287</v>
       </c>
-      <c r="L31" s="29" t="s">
-        <v>163</v>
+      <c r="L31" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -3931,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4068,24 +4929,24 @@
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="43.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>212</v>
+      <c r="B32" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>22</v>
@@ -4099,32 +4960,32 @@
       <c r="K32" s="12">
         <v>44287</v>
       </c>
-      <c r="L32" s="33" t="s">
-        <v>235</v>
+      <c r="L32" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>22</v>
@@ -4136,28 +4997,28 @@
         <v>44287</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8">
-      <c r="A34" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>221</v>
+      <c r="A34" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>22</v>
@@ -4171,30 +5032,30 @@
       <c r="K34" s="12">
         <v>44287</v>
       </c>
-      <c r="L34" s="33" t="s">
-        <v>235</v>
+      <c r="L34" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="72">
       <c r="A35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
-        <v>224</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>22</v>
@@ -4205,29 +5066,29 @@
       <c r="K35" s="12">
         <v>44287</v>
       </c>
-      <c r="L35" s="33" t="s">
-        <v>235</v>
+      <c r="L35" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="57.6">
-      <c r="A36" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>228</v>
+      <c r="A36" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>22</v>
@@ -4241,27 +5102,27 @@
       <c r="K36" s="12">
         <v>44287</v>
       </c>
-      <c r="L36" s="33" t="s">
-        <v>235</v>
+      <c r="L36" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="72">
       <c r="A37" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>22</v>
@@ -4275,8 +5136,8 @@
       <c r="K37" s="12">
         <v>44287</v>
       </c>
-      <c r="L37" s="33" t="s">
-        <v>235</v>
+      <c r="L37" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4295,4 +5156,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>